--- a/biology/Zoologie/Hemidactylus_modestus/Hemidactylus_modestus.xlsx
+++ b/biology/Zoologie/Hemidactylus_modestus/Hemidactylus_modestus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus modestus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus modestus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kenya.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Günther, 1894 : Report on the collection of reptiles and fishes made by Dr. J. W. Gregory during his expedition to Mount Kenia. Proceedings of the Zoological Society of London, vol. 1894, p. 84-91 (texte intégral).</t>
         </is>
